--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08FC04-5988-40C5-ACE4-C3540B6DF9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689CAA3-B600-44DC-AF71-46F2EBDCBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -47,13 +47,23 @@
   <si>
     <t>NULL</t>
   </si>
+  <si>
+    <t>Horario entrada</t>
+  </si>
+  <si>
+    <t>Horario saida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  01:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -156,6 +166,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -204,9 +251,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,29 +277,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1378,10 +1433,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1648,10 +1703,10 @@
       <c r="C17" s="11">
         <v>10</v>
       </c>
-      <c r="D17" s="18">
-        <v>54</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="15">
+        <v>54</v>
+      </c>
+      <c r="E17" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1719,7 +1774,7 @@
       <c r="D21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1750,7 +1805,7 @@
       <c r="C23" s="11">
         <v>5</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>54</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -1767,10 +1822,10 @@
       <c r="C24" s="11">
         <v>10</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>27</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1784,10 +1839,10 @@
       <c r="C25" s="11">
         <v>10</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>27</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1801,10 +1856,10 @@
       <c r="C26" s="11">
         <v>10</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>27</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1818,10 +1873,10 @@
       <c r="C27" s="11">
         <v>10</v>
       </c>
-      <c r="D27" s="18">
-        <v>54</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D27" s="15">
+        <v>54</v>
+      </c>
+      <c r="E27" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1835,10 +1890,10 @@
       <c r="C28" s="11">
         <v>10</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>27</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>54</v>
       </c>
     </row>
@@ -1852,10 +1907,10 @@
       <c r="C29" s="11">
         <v>10</v>
       </c>
-      <c r="D29" s="18">
-        <v>54</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="15">
+        <v>54</v>
+      </c>
+      <c r="E29" s="15">
         <v>27</v>
       </c>
     </row>
@@ -1869,10 +1924,10 @@
       <c r="C30" s="11">
         <v>10</v>
       </c>
-      <c r="D30" s="18">
-        <v>54</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="D30" s="15">
+        <v>54</v>
+      </c>
+      <c r="E30" s="17">
         <v>54</v>
       </c>
     </row>
@@ -1886,16 +1941,16 @@
       <c r="C31" s="11">
         <v>20</v>
       </c>
-      <c r="D31" s="18">
-        <v>54</v>
-      </c>
-      <c r="E31" s="18">
-        <v>54</v>
-      </c>
-      <c r="F31" s="18">
+      <c r="D31" s="15">
+        <v>54</v>
+      </c>
+      <c r="E31" s="15">
+        <v>54</v>
+      </c>
+      <c r="F31" s="15">
         <v>27</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1909,10 +1964,10 @@
       <c r="C32" s="11">
         <v>10</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="15">
         <v>27</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="18">
         <v>54</v>
       </c>
     </row>
@@ -1943,16 +1998,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="25" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="34"/>
+    <col min="2" max="2" width="14.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,10 +2019,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1980,10 +2034,10 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="15">
         <v>27</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="15">
         <v>54</v>
       </c>
     </row>
@@ -1997,10 +2051,10 @@
       <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="30">
-        <v>54</v>
-      </c>
-      <c r="E3" s="30">
+      <c r="D3" s="15">
+        <v>54</v>
+      </c>
+      <c r="E3" s="15">
         <v>27</v>
       </c>
     </row>
@@ -2014,10 +2068,10 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="15">
         <v>27</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="15">
         <v>54</v>
       </c>
     </row>
@@ -2031,10 +2085,10 @@
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2048,10 +2102,10 @@
       <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="30">
-        <v>54</v>
-      </c>
-      <c r="E6" s="30">
+      <c r="D6" s="15">
+        <v>54</v>
+      </c>
+      <c r="E6" s="15">
         <v>54</v>
       </c>
     </row>
@@ -2065,10 +2119,10 @@
       <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="30">
-        <v>54</v>
-      </c>
-      <c r="E7" s="30">
+      <c r="D7" s="15">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15">
         <v>54</v>
       </c>
     </row>
@@ -2082,10 +2136,10 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2099,10 +2153,10 @@
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2116,10 +2170,10 @@
       <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="30">
+      <c r="D10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15">
         <v>54</v>
       </c>
     </row>
@@ -2133,13 +2187,13 @@
       <c r="C11" s="11">
         <v>15</v>
       </c>
-      <c r="D11" s="30">
-        <v>54</v>
-      </c>
-      <c r="E11" s="30">
-        <v>54</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="D11" s="15">
+        <v>54</v>
+      </c>
+      <c r="E11" s="15">
+        <v>54</v>
+      </c>
+      <c r="F11" s="23">
         <v>54</v>
       </c>
     </row>
@@ -2153,10 +2207,10 @@
       <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2170,10 +2224,10 @@
       <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="15">
         <v>27</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="15">
         <v>54</v>
       </c>
     </row>
@@ -2187,13 +2241,13 @@
       <c r="C14" s="11">
         <v>15</v>
       </c>
-      <c r="D14" s="30">
-        <v>54</v>
-      </c>
-      <c r="E14" s="30">
-        <v>54</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="D14" s="15">
+        <v>54</v>
+      </c>
+      <c r="E14" s="15">
+        <v>54</v>
+      </c>
+      <c r="F14" s="23">
         <v>54</v>
       </c>
     </row>
@@ -2207,10 +2261,10 @@
       <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="30">
-        <v>54</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="15">
+        <v>54</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2224,147 +2278,147 @@
       <c r="C16" s="11">
         <v>5</v>
       </c>
-      <c r="D16" s="30">
-        <v>54</v>
-      </c>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="15">
+        <v>54</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>45032</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="19">
         <v>45033</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="19">
         <v>45034</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="19">
         <v>45035</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="19">
         <v>45036</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>45037</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>45038</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="19">
         <v>45039</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="19">
         <v>45040</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="19">
         <v>45041</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="19">
         <v>45042</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="19">
         <v>45043</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="19">
         <v>45044</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="19">
         <v>45045</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="36"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="19">
         <v>45046</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2378,8 +2432,8 @@
         <f>SUM(C2:C31)</f>
         <v>105</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2392,46 +2446,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="17">
+      <c r="B2" s="30"/>
+      <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="15">
+      <c r="B3" s="30"/>
+      <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>225</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36">
+        <v>17.708333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689CAA3-B600-44DC-AF71-46F2EBDCBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F19D34E-73CB-4B91-BDF8-89671B3A898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,9 +266,6 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,7 +273,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,6 +285,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,9 +309,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,10 +1442,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1998,37 +2007,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="36">
         <v>2</v>
       </c>
       <c r="C2" s="11">
@@ -2045,7 +2054,7 @@
       <c r="A3" s="9">
         <v>45018</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="36">
         <v>2</v>
       </c>
       <c r="C3" s="11">
@@ -2062,7 +2071,7 @@
       <c r="A4" s="9">
         <v>45019</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="36">
         <v>2</v>
       </c>
       <c r="C4" s="11">
@@ -2079,16 +2088,16 @@
       <c r="A5" s="12">
         <v>45020</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2096,7 +2105,7 @@
       <c r="A6" s="9">
         <v>45021</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="36">
         <v>2</v>
       </c>
       <c r="C6" s="11">
@@ -2113,7 +2122,7 @@
       <c r="A7" s="9">
         <v>45022</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="36">
         <v>2</v>
       </c>
       <c r="C7" s="11">
@@ -2130,16 +2139,16 @@
       <c r="A8" s="12">
         <v>45023</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2147,16 +2156,16 @@
       <c r="A9" s="12">
         <v>45024</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2164,13 +2173,13 @@
       <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
       <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15">
@@ -2181,7 +2190,7 @@
       <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="36">
         <v>3</v>
       </c>
       <c r="C11" s="11">
@@ -2193,7 +2202,7 @@
       <c r="E11" s="15">
         <v>54</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>54</v>
       </c>
     </row>
@@ -2201,16 +2210,16 @@
       <c r="A12" s="12">
         <v>45027</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2218,7 +2227,7 @@
       <c r="A13" s="9">
         <v>45028</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="36">
         <v>2</v>
       </c>
       <c r="C13" s="11">
@@ -2235,7 +2244,7 @@
       <c r="A14" s="9">
         <v>45029</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="36">
         <v>3</v>
       </c>
       <c r="C14" s="11">
@@ -2247,7 +2256,7 @@
       <c r="E14" s="15">
         <v>54</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>54</v>
       </c>
     </row>
@@ -2255,182 +2264,190 @@
       <c r="A15" s="9">
         <v>45030</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="36">
         <v>1</v>
       </c>
       <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="15">
-        <v>54</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>8</v>
+      <c r="D15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45031</v>
       </c>
-      <c r="B16" s="10">
-        <v>2</v>
+      <c r="B16" s="36">
+        <v>1</v>
       </c>
       <c r="C16" s="11">
         <v>5</v>
       </c>
-      <c r="D16" s="15">
-        <v>54</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>8</v>
+      <c r="D16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="9">
         <v>45032</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>5</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>45033</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>45034</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>45035</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>45036</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>45037</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>45038</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>45039</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>45040</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>45041</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>45042</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>45043</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>45044</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>45045</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>45046</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="35">
         <f>SUM(B2:B31)</f>
         <v>22</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2448,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2458,47 +2475,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36">
+      <c r="B4" s="34"/>
+      <c r="C4" s="27">
         <v>17.708333333333332</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
     </row>

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F19D34E-73CB-4B91-BDF8-89671B3A898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D696F-2F65-4922-B8BB-BBCEDEF3BC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,19 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2008,13 +1995,13 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2022,7 +2009,7 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -2037,7 +2024,7 @@
       <c r="A2" s="9">
         <v>45017</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="15">
         <v>2</v>
       </c>
       <c r="C2" s="11">
@@ -2054,7 +2041,7 @@
       <c r="A3" s="9">
         <v>45018</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
       <c r="C3" s="11">
@@ -2071,7 +2058,7 @@
       <c r="A4" s="9">
         <v>45019</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
       <c r="C4" s="11">
@@ -2088,7 +2075,7 @@
       <c r="A5" s="12">
         <v>45020</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2105,7 +2092,7 @@
       <c r="A6" s="9">
         <v>45021</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" s="11">
@@ -2122,7 +2109,7 @@
       <c r="A7" s="9">
         <v>45022</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="11">
@@ -2139,7 +2126,7 @@
       <c r="A8" s="12">
         <v>45023</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -2156,7 +2143,7 @@
       <c r="A9" s="12">
         <v>45024</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2173,7 +2160,7 @@
       <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
       <c r="C10" s="11">
@@ -2190,7 +2177,7 @@
       <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
       <c r="C11" s="11">
@@ -2210,7 +2197,7 @@
       <c r="A12" s="12">
         <v>45027</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -2227,7 +2214,7 @@
       <c r="A13" s="9">
         <v>45028</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="15">
         <v>2</v>
       </c>
       <c r="C13" s="11">
@@ -2244,7 +2231,7 @@
       <c r="A14" s="9">
         <v>45029</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="15">
         <v>3</v>
       </c>
       <c r="C14" s="11">
@@ -2264,7 +2251,7 @@
       <c r="A15" s="9">
         <v>45030</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="15">
         <v>1</v>
       </c>
       <c r="C15" s="11">
@@ -2281,7 +2268,7 @@
       <c r="A16" s="9">
         <v>45031</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" s="11">
@@ -2298,7 +2285,7 @@
       <c r="A17" s="9">
         <v>45032</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="15">
         <v>1</v>
       </c>
       <c r="C17" s="11">
@@ -2312,28 +2299,44 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="12">
         <v>45033</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="12">
         <v>45034</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>45035</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="20"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -2342,7 +2345,7 @@
       <c r="A21" s="19">
         <v>45036</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="20"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -2351,7 +2354,7 @@
       <c r="A22" s="19">
         <v>45037</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="20"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -2360,7 +2363,7 @@
       <c r="A23" s="19">
         <v>45038</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="20"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -2369,7 +2372,7 @@
       <c r="A24" s="19">
         <v>45039</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="20"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -2378,7 +2381,7 @@
       <c r="A25" s="19">
         <v>45040</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="20"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -2387,7 +2390,7 @@
       <c r="A26" s="19">
         <v>45041</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="20"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -2396,7 +2399,7 @@
       <c r="A27" s="19">
         <v>45042</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="20"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -2405,7 +2408,7 @@
       <c r="A28" s="19">
         <v>45043</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="20"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
@@ -2414,7 +2417,7 @@
       <c r="A29" s="19">
         <v>45044</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="20"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -2423,7 +2426,7 @@
       <c r="A30" s="19">
         <v>45045</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="20"/>
       <c r="D30" s="24"/>
       <c r="E30" s="26"/>
@@ -2432,7 +2435,7 @@
       <c r="A31" s="19">
         <v>45046</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -2441,7 +2444,7 @@
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
         <v>22</v>
       </c>

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D696F-2F65-4922-B8BB-BBCEDEF3BC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122DE5C-D864-4BD2-96AF-44C49C153925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,13 +2333,21 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="9">
         <v>45035</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>5</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="15">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -2446,11 +2454,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2491,7 +2499,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,7 +2509,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122DE5C-D864-4BD2-96AF-44C49C153925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802BA1ED-EDB9-4E73-B6F0-EBC886EB2C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,21 +2342,29 @@
       <c r="C20" s="11">
         <v>5</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>8</v>
+      <c r="D20" s="15">
+        <v>54</v>
       </c>
       <c r="E20" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="A21" s="9">
         <v>45036</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>10</v>
+      </c>
+      <c r="D21" s="15">
+        <v>54</v>
+      </c>
+      <c r="E21" s="15">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -2454,11 +2462,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2499,7 +2507,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2509,7 +2517,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802BA1ED-EDB9-4E73-B6F0-EBC886EB2C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843CA3F9-A082-4CA1-94BD-9AD252C0C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,8 +2342,8 @@
       <c r="C20" s="11">
         <v>5</v>
       </c>
-      <c r="D20" s="15">
-        <v>54</v>
+      <c r="D20" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="15">
         <v>54</v>
@@ -2367,13 +2367,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="9">
         <v>45037</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>54</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
@@ -2462,11 +2470,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2507,7 +2515,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +2525,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843CA3F9-A082-4CA1-94BD-9AD252C0C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE756080-369A-46B6-9091-104EE9FA39C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="A22:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,13 +2384,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="9">
         <v>45038</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>10</v>
+      </c>
+      <c r="D23" s="15">
+        <v>54</v>
+      </c>
+      <c r="E23" s="15">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
@@ -2470,11 +2478,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2515,7 +2523,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,7 +2533,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE756080-369A-46B6-9091-104EE9FA39C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA80F8E-967A-42F9-9C47-D92AAAE050C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,13 +2401,21 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="12">
         <v>45039</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19">

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA80F8E-967A-42F9-9C47-D92AAAE050C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5197C6F5-D483-46B1-8FEC-106C59C68252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -74,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,6 +313,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1995,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,22 +2427,38 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="35">
         <v>45040</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15">
+        <v>54</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
+      <c r="A26" s="35">
         <v>45041</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>10</v>
+      </c>
+      <c r="D26" s="15">
+        <v>54</v>
+      </c>
+      <c r="E26" s="15">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
@@ -2486,11 +2511,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2531,7 +2556,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,7 +2566,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5197C6F5-D483-46B1-8FEC-106C59C68252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B6F47-92E1-4998-AE73-91DF45CAA505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -294,6 +294,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,9 +316,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1438,10 +1438,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2003,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,10 +2024,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2427,7 +2427,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="28">
         <v>45040</v>
       </c>
       <c r="B25" s="15">
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="A26" s="28">
         <v>45041</v>
       </c>
       <c r="B26" s="15">
@@ -2461,13 +2461,21 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+      <c r="A27" s="12">
         <v>45042</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
@@ -2543,46 +2551,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="27">
         <v>17.708333333333332</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="27" t="s">
         <v>11</v>
       </c>

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B6F47-92E1-4998-AE73-91DF45CAA505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5CA51-052A-4D59-BE49-AF71A7934980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,9 +283,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1438,10 +1435,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2004,7 +2001,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A27" sqref="A27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,10 +2021,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2427,7 +2424,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>45040</v>
       </c>
       <c r="B25" s="15">
@@ -2444,7 +2441,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>45041</v>
       </c>
       <c r="B26" s="15">
@@ -2478,13 +2475,21 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
+      <c r="A28" s="12">
         <v>45043</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
@@ -2502,7 +2507,7 @@
       <c r="B30" s="24"/>
       <c r="C30" s="20"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
@@ -2551,47 +2556,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="27">
+      <c r="B4" s="34"/>
+      <c r="C4" s="26">
         <v>17.708333333333332</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="26" t="s">
         <v>11</v>
       </c>
     </row>

--- a/CTR ANNA.xlsx
+++ b/CTR ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5CA51-052A-4D59-BE49-AF71A7934980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F59BE5-43F4-4335-8BB8-56065649DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="12">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -74,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +96,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,12 +263,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,16 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,10 +1417,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -2001,14 +1983,14 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E28"/>
+      <selection activeCell="E29" sqref="A29:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,10 +2003,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2081,16 +2063,16 @@
       <c r="A5" s="12">
         <v>45020</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2132,16 +2114,16 @@
       <c r="A8" s="12">
         <v>45023</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2149,16 +2131,16 @@
       <c r="A9" s="12">
         <v>45024</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2172,7 +2154,7 @@
       <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15">
@@ -2195,7 +2177,7 @@
       <c r="E11" s="15">
         <v>54</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>54</v>
       </c>
     </row>
@@ -2203,16 +2185,16 @@
       <c r="A12" s="12">
         <v>45027</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2249,7 +2231,7 @@
       <c r="E14" s="15">
         <v>54</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>54</v>
       </c>
     </row>
@@ -2263,7 +2245,7 @@
       <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="15">
@@ -2280,7 +2262,7 @@
       <c r="C16" s="11">
         <v>5</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="15">
@@ -2297,7 +2279,7 @@
       <c r="C17" s="11">
         <v>5</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="15">
@@ -2308,16 +2290,16 @@
       <c r="A18" s="12">
         <v>45033</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="23" t="s">
+      <c r="D18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2325,16 +2307,16 @@
       <c r="A19" s="12">
         <v>45034</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2348,7 +2330,7 @@
       <c r="C20" s="11">
         <v>5</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="15">
@@ -2385,7 +2367,7 @@
       <c r="D22" s="15">
         <v>54</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2410,21 +2392,21 @@
       <c r="A24" s="12">
         <v>45039</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="23">
         <v>45040</v>
       </c>
       <c r="B25" s="15">
@@ -2436,12 +2418,12 @@
       <c r="D25" s="15">
         <v>54</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="23">
         <v>45041</v>
       </c>
       <c r="B26" s="15">
@@ -2461,16 +2443,16 @@
       <c r="A27" s="12">
         <v>45042</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2478,45 +2460,69 @@
       <c r="A28" s="12">
         <v>45043</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="23" t="s">
+      <c r="D28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="A29" s="12">
         <v>45044</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="A30" s="12">
         <v>45045</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="A31" s="12">
         <v>45046</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2556,47 +2562,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="26">
+      <c r="B4" s="30"/>
+      <c r="C4" s="22">
         <v>17.708333333333332</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
